--- a/Code/Results/Cases/Case_1_242/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_242/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3265007875400698</v>
+        <v>0.123079927955402</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.429931275089729</v>
+        <v>0.314049879459219</v>
       </c>
       <c r="E2">
-        <v>0.8309253166411779</v>
+        <v>0.1768047495715734</v>
       </c>
       <c r="F2">
-        <v>19.20677135873274</v>
+        <v>4.749763998417563</v>
       </c>
       <c r="G2">
-        <v>0.0005016557544438638</v>
+        <v>0.002376493410274945</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1063184482663289</v>
+        <v>0.3320621333132454</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>10.01439521617081</v>
+        <v>2.292532481325765</v>
       </c>
       <c r="N2">
-        <v>0.6749890261567231</v>
+        <v>1.043668644564235</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.284977134524425</v>
+        <v>0.1092979331872783</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.097767757104805</v>
+        <v>0.2807962535968045</v>
       </c>
       <c r="E3">
-        <v>0.658549555387772</v>
+        <v>0.1543910560365447</v>
       </c>
       <c r="F3">
-        <v>14.89008641256754</v>
+        <v>4.302816729529354</v>
       </c>
       <c r="G3">
-        <v>0.0005561837009640704</v>
+        <v>0.002393512444321289</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1283138362169343</v>
+        <v>0.3389284839788793</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>7.938460698000824</v>
+        <v>2.021132161612769</v>
       </c>
       <c r="N3">
-        <v>0.7144558466887929</v>
+        <v>1.046502041668859</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.259295355393391</v>
+        <v>0.1008218889714954</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9383915341937836</v>
+        <v>0.2607624217283728</v>
       </c>
       <c r="E4">
-        <v>0.5738626885002134</v>
+        <v>0.1406496207408239</v>
       </c>
       <c r="F4">
-        <v>12.7943945585173</v>
+        <v>4.03393331036699</v>
       </c>
       <c r="G4">
-        <v>0.000584942894870523</v>
+        <v>0.00240442285053875</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1411008923193506</v>
+        <v>0.3433865055670982</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>6.894641793677863</v>
+        <v>1.856072850322704</v>
       </c>
       <c r="N4">
-        <v>0.7341224505682931</v>
+        <v>1.048757236476902</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2487979903575734</v>
+        <v>0.09736471753583942</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.8797614895010213</v>
+        <v>0.2526883274542797</v>
       </c>
       <c r="E5">
-        <v>0.5422301780476744</v>
+        <v>0.1350528360446432</v>
       </c>
       <c r="F5">
-        <v>12.01954312125167</v>
+        <v>3.925670506065671</v>
       </c>
       <c r="G5">
-        <v>0.0005960477223636855</v>
+        <v>0.002408985852717006</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1462646212448728</v>
+        <v>0.3452640908047311</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>6.502222128540126</v>
+        <v>1.789173779688667</v>
       </c>
       <c r="N5">
-        <v>0.741617625971756</v>
+        <v>1.049806739674935</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2470532122326006</v>
+        <v>0.09679047958253761</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.8703266346606711</v>
+        <v>0.2513528659874567</v>
       </c>
       <c r="E6">
-        <v>0.5371120802624318</v>
+        <v>0.1341236096999907</v>
       </c>
       <c r="F6">
-        <v>11.89465739351323</v>
+        <v>3.907770219238387</v>
       </c>
       <c r="G6">
-        <v>0.0005978640359201041</v>
+        <v>0.002409750628937506</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1471213369175297</v>
+        <v>0.3455795420785019</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>6.438631960058501</v>
+        <v>1.778086260533911</v>
       </c>
       <c r="N6">
-        <v>0.7428410549750737</v>
+        <v>1.049988916084473</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2591539021679097</v>
+        <v>0.1007752764710261</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.9375791639962188</v>
+        <v>0.2606531765314912</v>
       </c>
       <c r="E7">
-        <v>0.5734263374289768</v>
+        <v>0.1405741314336524</v>
       </c>
       <c r="F7">
-        <v>12.7836726123416</v>
+        <v>4.032468048268242</v>
       </c>
       <c r="G7">
-        <v>0.0005850946884842692</v>
+        <v>0.002404483913899136</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1411706195053251</v>
+        <v>0.343411580681126</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>6.889236330865629</v>
+        <v>1.855169196098529</v>
       </c>
       <c r="N7">
-        <v>0.7342251398887356</v>
+        <v>1.048770860916775</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3122370499241498</v>
+        <v>0.1183309839436646</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.301483806100322</v>
+        <v>0.3025001936304932</v>
       </c>
       <c r="E8">
-        <v>0.764734336863242</v>
+        <v>0.1690708372857088</v>
       </c>
       <c r="F8">
-        <v>17.54585921978753</v>
+        <v>4.59445377178281</v>
       </c>
       <c r="G8">
-        <v>0.000521981971026586</v>
+        <v>0.002382266630113423</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1141814718588918</v>
+        <v>0.3343794363853387</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>9.226909841183016</v>
+        <v>2.198604562861959</v>
       </c>
       <c r="N8">
-        <v>0.6901510850789663</v>
+        <v>1.044539131261629</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3122370499241498</v>
+        <v>0.1526335022417413</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.301483806100322</v>
+        <v>0.3879284170784842</v>
       </c>
       <c r="E9">
-        <v>0.764734336863242</v>
+        <v>0.2252249949888068</v>
       </c>
       <c r="F9">
-        <v>17.54585921978753</v>
+        <v>5.744530977641318</v>
       </c>
       <c r="G9">
-        <v>0.000521981971026586</v>
+        <v>0.00234230273841632</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1141814718588918</v>
+        <v>0.3185860856400566</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>9.226909841183016</v>
+        <v>2.886251940269631</v>
       </c>
       <c r="N9">
-        <v>0.6901510850789663</v>
+        <v>1.04029350483421</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3122370499241498</v>
+        <v>0.1777432096085079</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.301483806100322</v>
+        <v>0.4532134133729357</v>
       </c>
       <c r="E10">
-        <v>0.764734336863242</v>
+        <v>0.2668092318746034</v>
       </c>
       <c r="F10">
-        <v>17.54585921978753</v>
+        <v>6.624702995414623</v>
       </c>
       <c r="G10">
-        <v>0.000521981971026586</v>
+        <v>0.002315065032966163</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1141814718588918</v>
+        <v>0.3081494023467606</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>9.226909841183016</v>
+        <v>3.402510883514594</v>
       </c>
       <c r="N10">
-        <v>0.6901510850789663</v>
+        <v>1.039596101849781</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3122370499241498</v>
+        <v>0.1891428895084459</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.301483806100322</v>
+        <v>0.4835700066855679</v>
       </c>
       <c r="E11">
-        <v>0.764734336863242</v>
+        <v>0.2858363802429835</v>
       </c>
       <c r="F11">
-        <v>17.54585921978753</v>
+        <v>7.034146820574165</v>
       </c>
       <c r="G11">
-        <v>0.000521981971026586</v>
+        <v>0.002303118397442461</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1141814718588918</v>
+        <v>0.3036541772144457</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>9.226909841183016</v>
+        <v>3.640332165465765</v>
       </c>
       <c r="N11">
-        <v>0.6901510850789663</v>
+        <v>1.039794476428213</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3122370499241498</v>
+        <v>0.1934560386771409</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.301483806100322</v>
+        <v>0.4951694077117281</v>
       </c>
       <c r="E12">
-        <v>0.764734336863242</v>
+        <v>0.2930606355047445</v>
       </c>
       <c r="F12">
-        <v>17.54585921978753</v>
+        <v>7.190614112860715</v>
       </c>
       <c r="G12">
-        <v>0.000521981971026586</v>
+        <v>0.002298656954922684</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1141814718588918</v>
+        <v>0.3019882179170086</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>9.226909841183016</v>
+        <v>3.730865017624069</v>
       </c>
       <c r="N12">
-        <v>0.6901510850789663</v>
+        <v>1.039942876553752</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3122370499241498</v>
+        <v>0.1925272936593103</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.301483806100322</v>
+        <v>0.4926664877883979</v>
       </c>
       <c r="E13">
-        <v>0.764734336863242</v>
+        <v>0.291503860275057</v>
       </c>
       <c r="F13">
-        <v>17.54585921978753</v>
+        <v>7.156850975244083</v>
       </c>
       <c r="G13">
-        <v>0.000521981971026586</v>
+        <v>0.002299615049206621</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1141814718588918</v>
+        <v>0.3023453986127027</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>9.226909841183016</v>
+        <v>3.711345229054615</v>
       </c>
       <c r="N13">
-        <v>0.6901510850789663</v>
+        <v>1.039907670603455</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3122370499241498</v>
+        <v>0.1894978104235463</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.301483806100322</v>
+        <v>0.4845221560613027</v>
       </c>
       <c r="E14">
-        <v>0.764734336863242</v>
+        <v>0.2864303222832376</v>
       </c>
       <c r="F14">
-        <v>17.54585921978753</v>
+        <v>7.046990320650991</v>
       </c>
       <c r="G14">
-        <v>0.000521981971026586</v>
+        <v>0.002302750107561651</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1141814718588918</v>
+        <v>0.3035163906564442</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>9.226909841183016</v>
+        <v>3.647770553082296</v>
       </c>
       <c r="N14">
-        <v>0.6901510850789663</v>
+        <v>1.039805221724905</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3122370499241498</v>
+        <v>0.1876416764396822</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.301483806100322</v>
+        <v>0.4795473515040101</v>
       </c>
       <c r="E15">
-        <v>0.764734336863242</v>
+        <v>0.2833252189298179</v>
       </c>
       <c r="F15">
-        <v>17.54585921978753</v>
+        <v>6.979886031882074</v>
       </c>
       <c r="G15">
-        <v>0.000521981971026586</v>
+        <v>0.002304678517939509</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1141814718588918</v>
+        <v>0.3042383818420014</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>9.226909841183016</v>
+        <v>3.608892562042968</v>
       </c>
       <c r="N15">
-        <v>0.6901510850789663</v>
+        <v>1.039751986303813</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3122370499241498</v>
+        <v>0.1769977216430618</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.301483806100322</v>
+        <v>0.4512435715029142</v>
       </c>
       <c r="E16">
-        <v>0.764734336863242</v>
+        <v>0.2655682533169994</v>
       </c>
       <c r="F16">
-        <v>17.54585921978753</v>
+        <v>6.59813695115497</v>
       </c>
       <c r="G16">
-        <v>0.000521981971026586</v>
+        <v>0.002315854592897788</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1141814718588918</v>
+        <v>0.308448254558785</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>9.226909841183016</v>
+        <v>3.387032527645118</v>
       </c>
       <c r="N16">
-        <v>0.6901510850789663</v>
+        <v>1.039593439288623</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3122370499241498</v>
+        <v>0.1704618784255132</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.301483806100322</v>
+        <v>0.434055188383752</v>
       </c>
       <c r="E17">
-        <v>0.764734336863242</v>
+        <v>0.25470540650619</v>
       </c>
       <c r="F17">
-        <v>17.54585921978753</v>
+        <v>6.366346205026503</v>
       </c>
       <c r="G17">
-        <v>0.000521981971026586</v>
+        <v>0.002322823512681115</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1141814718588918</v>
+        <v>0.3110955253145953</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>9.226909841183016</v>
+        <v>3.251722943464245</v>
       </c>
       <c r="N17">
-        <v>0.6901510850789663</v>
+        <v>1.039627623963057</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3122370499241498</v>
+        <v>0.1667005055892474</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.301483806100322</v>
+        <v>0.4242302381405239</v>
       </c>
       <c r="E18">
-        <v>0.764734336863242</v>
+        <v>0.248467558086702</v>
       </c>
       <c r="F18">
-        <v>17.54585921978753</v>
+        <v>6.233870562101345</v>
       </c>
       <c r="G18">
-        <v>0.000521981971026586</v>
+        <v>0.002326873719914264</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1141814718588918</v>
+        <v>0.3126419307778239</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>9.226909841183016</v>
+        <v>3.174173220501302</v>
       </c>
       <c r="N18">
-        <v>0.6901510850789663</v>
+        <v>1.039695871109501</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3122370499241498</v>
+        <v>0.1654266152931285</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.301483806100322</v>
+        <v>0.4209139390295036</v>
       </c>
       <c r="E19">
-        <v>0.764734336863242</v>
+        <v>0.2463571820807857</v>
       </c>
       <c r="F19">
-        <v>17.54585921978753</v>
+        <v>6.189158085657766</v>
       </c>
       <c r="G19">
-        <v>0.000521981971026586</v>
+        <v>0.002328252281894693</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1141814718588918</v>
+        <v>0.3131695994379697</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>9.226909841183016</v>
+        <v>3.147962345755673</v>
       </c>
       <c r="N19">
-        <v>0.6901510850789663</v>
+        <v>1.03972734932826</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3122370499241498</v>
+        <v>0.1711578531401301</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.301483806100322</v>
+        <v>0.4358785050330312</v>
       </c>
       <c r="E20">
-        <v>0.764734336863242</v>
+        <v>0.2558606994092116</v>
       </c>
       <c r="F20">
-        <v>17.54585921978753</v>
+        <v>6.39093251027009</v>
       </c>
       <c r="G20">
-        <v>0.000521981971026586</v>
+        <v>0.002322077335447833</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1141814718588918</v>
+        <v>0.3108112593494798</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>9.226909841183016</v>
+        <v>3.266097898637184</v>
       </c>
       <c r="N20">
-        <v>0.6901510850789663</v>
+        <v>1.039618962853979</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3122370499241498</v>
+        <v>0.1903877454561496</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.301483806100322</v>
+        <v>0.486911443256588</v>
       </c>
       <c r="E21">
-        <v>0.764734336863242</v>
+        <v>0.2879199985655703</v>
       </c>
       <c r="F21">
-        <v>17.54585921978753</v>
+        <v>7.079219546360264</v>
       </c>
       <c r="G21">
-        <v>0.000521981971026586</v>
+        <v>0.002301827579918527</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1141814718588918</v>
+        <v>0.3031714573127502</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>9.226909841183016</v>
+        <v>3.666430688752484</v>
       </c>
       <c r="N21">
-        <v>0.6901510850789663</v>
+        <v>1.039833331560644</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3122370499241498</v>
+        <v>0.2029340735935818</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.301483806100322</v>
+        <v>0.5208754614550912</v>
       </c>
       <c r="E22">
-        <v>0.764734336863242</v>
+        <v>0.3089855113396567</v>
       </c>
       <c r="F22">
-        <v>17.54585921978753</v>
+        <v>7.537390591756491</v>
       </c>
       <c r="G22">
-        <v>0.000521981971026586</v>
+        <v>0.002288956761662408</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1141814718588918</v>
+        <v>0.2983898912704426</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>9.226909841183016</v>
+        <v>3.930864699697736</v>
       </c>
       <c r="N22">
-        <v>0.6901510850789663</v>
+        <v>1.040400161853981</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3122370499241498</v>
+        <v>0.1962399543991182</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.301483806100322</v>
+        <v>0.5026890735056782</v>
       </c>
       <c r="E23">
-        <v>0.764734336863242</v>
+        <v>0.2977309966580464</v>
       </c>
       <c r="F23">
-        <v>17.54585921978753</v>
+        <v>7.292052399798479</v>
       </c>
       <c r="G23">
-        <v>0.000521981971026586</v>
+        <v>0.002295793353588052</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1141814718588918</v>
+        <v>0.3009225589881588</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>9.226909841183016</v>
+        <v>3.789459204654207</v>
       </c>
       <c r="N23">
-        <v>0.6901510850789663</v>
+        <v>1.040058875075019</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3122370499241498</v>
+        <v>0.1708432148711267</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.301483806100322</v>
+        <v>0.4350540071096702</v>
       </c>
       <c r="E24">
-        <v>0.764734336863242</v>
+        <v>0.2553383688454716</v>
       </c>
       <c r="F24">
-        <v>17.54585921978753</v>
+        <v>6.379814608741867</v>
       </c>
       <c r="G24">
-        <v>0.000521981971026586</v>
+        <v>0.002322414546157039</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1141814718588918</v>
+        <v>0.3109396998212492</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>9.226909841183016</v>
+        <v>3.259598232569914</v>
       </c>
       <c r="N24">
-        <v>0.6901510850789663</v>
+        <v>1.039622727116566</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3122370499241498</v>
+        <v>0.1433687920817732</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.301483806100322</v>
+        <v>0.3644104759966922</v>
       </c>
       <c r="E25">
-        <v>0.764734336863242</v>
+        <v>0.2099885130927532</v>
       </c>
       <c r="F25">
-        <v>17.54585921978753</v>
+        <v>5.427668866972226</v>
       </c>
       <c r="G25">
-        <v>0.000521981971026586</v>
+        <v>0.002352735617854966</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1141814718588918</v>
+        <v>0.3226535088687772</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>9.226909841183016</v>
+        <v>2.698467210663409</v>
       </c>
       <c r="N25">
-        <v>0.6901510850789663</v>
+        <v>1.041013246675064</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_242/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_242/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.123079927955402</v>
+        <v>0.3265007875400698</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.314049879459219</v>
+        <v>1.429931275089984</v>
       </c>
       <c r="E2">
-        <v>0.1768047495715734</v>
+        <v>0.8309253166412418</v>
       </c>
       <c r="F2">
-        <v>4.749763998417563</v>
+        <v>19.20677135873268</v>
       </c>
       <c r="G2">
-        <v>0.002376493410274945</v>
+        <v>0.0005016557544460714</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3320621333132454</v>
+        <v>0.1063184482663289</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.292532481325765</v>
+        <v>10.01439521617078</v>
       </c>
       <c r="N2">
-        <v>1.043668644564235</v>
+        <v>0.6749890261567231</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1092979331872783</v>
+        <v>0.2849771345243255</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2807962535968045</v>
+        <v>1.097767757105004</v>
       </c>
       <c r="E3">
-        <v>0.1543910560365447</v>
+        <v>0.6585495553877792</v>
       </c>
       <c r="F3">
-        <v>4.302816729529354</v>
+        <v>14.8900864125676</v>
       </c>
       <c r="G3">
-        <v>0.002393512444321289</v>
+        <v>0.0005561837010837966</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3389284839788793</v>
+        <v>0.1283138362169369</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.021132161612769</v>
+        <v>7.938460698000853</v>
       </c>
       <c r="N3">
-        <v>1.046502041668859</v>
+        <v>0.7144558466888071</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1008218889714954</v>
+        <v>0.2592953553935047</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2607624217283728</v>
+        <v>0.9383915341937836</v>
       </c>
       <c r="E4">
-        <v>0.1406496207408239</v>
+        <v>0.5738626885001779</v>
       </c>
       <c r="F4">
-        <v>4.03393331036699</v>
+        <v>12.79439455851735</v>
       </c>
       <c r="G4">
-        <v>0.00240442285053875</v>
+        <v>0.000584942894750586</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3433865055670982</v>
+        <v>0.1411008923193497</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.856072850322704</v>
+        <v>6.894641793677891</v>
       </c>
       <c r="N4">
-        <v>1.048757236476902</v>
+        <v>0.7341224505683499</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.09736471753583942</v>
+        <v>0.2487979903576019</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2526883274542797</v>
+        <v>0.8797614895008792</v>
       </c>
       <c r="E5">
-        <v>0.1350528360446432</v>
+        <v>0.5422301780476459</v>
       </c>
       <c r="F5">
-        <v>3.925670506065671</v>
+        <v>12.01954312125156</v>
       </c>
       <c r="G5">
-        <v>0.002408985852717006</v>
+        <v>0.0005960477222754923</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3452640908047311</v>
+        <v>0.1462646212448586</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.789173779688667</v>
+        <v>6.502222128540069</v>
       </c>
       <c r="N5">
-        <v>1.049806739674935</v>
+        <v>0.7416176259717986</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09679047958253761</v>
+        <v>0.2470532122327285</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2513528659874567</v>
+        <v>0.8703266346604437</v>
       </c>
       <c r="E6">
-        <v>0.1341236096999907</v>
+        <v>0.5371120802624247</v>
       </c>
       <c r="F6">
-        <v>3.907770219238387</v>
+        <v>11.89465739351323</v>
       </c>
       <c r="G6">
-        <v>0.002409750628937506</v>
+        <v>0.0005978640360163229</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3455795420785019</v>
+        <v>0.1471213369175315</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.778086260533911</v>
+        <v>6.43863196005853</v>
       </c>
       <c r="N6">
-        <v>1.049988916084473</v>
+        <v>0.7428410549751305</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1007752764710261</v>
+        <v>0.2591539021678813</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2606531765314912</v>
+        <v>0.937579163996304</v>
       </c>
       <c r="E7">
-        <v>0.1405741314336524</v>
+        <v>0.573426337428991</v>
       </c>
       <c r="F7">
-        <v>4.032468048268242</v>
+        <v>12.78367261234149</v>
       </c>
       <c r="G7">
-        <v>0.002404483913899136</v>
+        <v>0.0005850946884897005</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.343411580681126</v>
+        <v>0.1411706195053419</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.855169196098529</v>
+        <v>6.889236330865572</v>
       </c>
       <c r="N7">
-        <v>1.048770860916775</v>
+        <v>0.7342251398887072</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1183309839436646</v>
+        <v>0.3122370499242919</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3025001936304932</v>
+        <v>1.30148380610035</v>
       </c>
       <c r="E8">
-        <v>0.1690708372857088</v>
+        <v>0.7647343368632349</v>
       </c>
       <c r="F8">
-        <v>4.59445377178281</v>
+        <v>17.54585921978742</v>
       </c>
       <c r="G8">
-        <v>0.002382266630113423</v>
+        <v>0.0005219819710948008</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3343794363853387</v>
+        <v>0.114181471858906</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.198604562861959</v>
+        <v>9.226909841182959</v>
       </c>
       <c r="N8">
-        <v>1.044539131261629</v>
+        <v>0.6901510850789663</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1526335022417413</v>
+        <v>0.3122370499242919</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3879284170784842</v>
+        <v>1.30148380610035</v>
       </c>
       <c r="E9">
-        <v>0.2252249949888068</v>
+        <v>0.7647343368632349</v>
       </c>
       <c r="F9">
-        <v>5.744530977641318</v>
+        <v>17.54585921978742</v>
       </c>
       <c r="G9">
-        <v>0.00234230273841632</v>
+        <v>0.0005219819710948008</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3185860856400566</v>
+        <v>0.114181471858906</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2.886251940269631</v>
+        <v>9.226909841182959</v>
       </c>
       <c r="N9">
-        <v>1.04029350483421</v>
+        <v>0.6901510850789663</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1777432096085079</v>
+        <v>0.3122370499242919</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4532134133729357</v>
+        <v>1.30148380610035</v>
       </c>
       <c r="E10">
-        <v>0.2668092318746034</v>
+        <v>0.7647343368632349</v>
       </c>
       <c r="F10">
-        <v>6.624702995414623</v>
+        <v>17.54585921978742</v>
       </c>
       <c r="G10">
-        <v>0.002315065032966163</v>
+        <v>0.0005219819710948008</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3081494023467606</v>
+        <v>0.114181471858906</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>3.402510883514594</v>
+        <v>9.226909841182959</v>
       </c>
       <c r="N10">
-        <v>1.039596101849781</v>
+        <v>0.6901510850789663</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1891428895084459</v>
+        <v>0.3122370499242919</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4835700066855679</v>
+        <v>1.30148380610035</v>
       </c>
       <c r="E11">
-        <v>0.2858363802429835</v>
+        <v>0.7647343368632349</v>
       </c>
       <c r="F11">
-        <v>7.034146820574165</v>
+        <v>17.54585921978742</v>
       </c>
       <c r="G11">
-        <v>0.002303118397442461</v>
+        <v>0.0005219819710948008</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3036541772144457</v>
+        <v>0.114181471858906</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>3.640332165465765</v>
+        <v>9.226909841182959</v>
       </c>
       <c r="N11">
-        <v>1.039794476428213</v>
+        <v>0.6901510850789663</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1934560386771409</v>
+        <v>0.3122370499242919</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4951694077117281</v>
+        <v>1.30148380610035</v>
       </c>
       <c r="E12">
-        <v>0.2930606355047445</v>
+        <v>0.7647343368632349</v>
       </c>
       <c r="F12">
-        <v>7.190614112860715</v>
+        <v>17.54585921978742</v>
       </c>
       <c r="G12">
-        <v>0.002298656954922684</v>
+        <v>0.0005219819710948008</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3019882179170086</v>
+        <v>0.114181471858906</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>3.730865017624069</v>
+        <v>9.226909841182959</v>
       </c>
       <c r="N12">
-        <v>1.039942876553752</v>
+        <v>0.6901510850789663</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1925272936593103</v>
+        <v>0.3122370499242919</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4926664877883979</v>
+        <v>1.30148380610035</v>
       </c>
       <c r="E13">
-        <v>0.291503860275057</v>
+        <v>0.7647343368632349</v>
       </c>
       <c r="F13">
-        <v>7.156850975244083</v>
+        <v>17.54585921978742</v>
       </c>
       <c r="G13">
-        <v>0.002299615049206621</v>
+        <v>0.0005219819710948008</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3023453986127027</v>
+        <v>0.114181471858906</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>3.711345229054615</v>
+        <v>9.226909841182959</v>
       </c>
       <c r="N13">
-        <v>1.039907670603455</v>
+        <v>0.6901510850789663</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1894978104235463</v>
+        <v>0.3122370499242919</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4845221560613027</v>
+        <v>1.30148380610035</v>
       </c>
       <c r="E14">
-        <v>0.2864303222832376</v>
+        <v>0.7647343368632349</v>
       </c>
       <c r="F14">
-        <v>7.046990320650991</v>
+        <v>17.54585921978742</v>
       </c>
       <c r="G14">
-        <v>0.002302750107561651</v>
+        <v>0.0005219819710948008</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3035163906564442</v>
+        <v>0.114181471858906</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>3.647770553082296</v>
+        <v>9.226909841182959</v>
       </c>
       <c r="N14">
-        <v>1.039805221724905</v>
+        <v>0.6901510850789663</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1876416764396822</v>
+        <v>0.3122370499242919</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4795473515040101</v>
+        <v>1.30148380610035</v>
       </c>
       <c r="E15">
-        <v>0.2833252189298179</v>
+        <v>0.7647343368632349</v>
       </c>
       <c r="F15">
-        <v>6.979886031882074</v>
+        <v>17.54585921978742</v>
       </c>
       <c r="G15">
-        <v>0.002304678517939509</v>
+        <v>0.0005219819710948008</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3042383818420014</v>
+        <v>0.114181471858906</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>3.608892562042968</v>
+        <v>9.226909841182959</v>
       </c>
       <c r="N15">
-        <v>1.039751986303813</v>
+        <v>0.6901510850789663</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1769977216430618</v>
+        <v>0.3122370499242919</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.4512435715029142</v>
+        <v>1.30148380610035</v>
       </c>
       <c r="E16">
-        <v>0.2655682533169994</v>
+        <v>0.7647343368632349</v>
       </c>
       <c r="F16">
-        <v>6.59813695115497</v>
+        <v>17.54585921978742</v>
       </c>
       <c r="G16">
-        <v>0.002315854592897788</v>
+        <v>0.0005219819710948008</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.308448254558785</v>
+        <v>0.114181471858906</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>3.387032527645118</v>
+        <v>9.226909841182959</v>
       </c>
       <c r="N16">
-        <v>1.039593439288623</v>
+        <v>0.6901510850789663</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1704618784255132</v>
+        <v>0.3122370499242919</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.434055188383752</v>
+        <v>1.30148380610035</v>
       </c>
       <c r="E17">
-        <v>0.25470540650619</v>
+        <v>0.7647343368632349</v>
       </c>
       <c r="F17">
-        <v>6.366346205026503</v>
+        <v>17.54585921978742</v>
       </c>
       <c r="G17">
-        <v>0.002322823512681115</v>
+        <v>0.0005219819710948008</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3110955253145953</v>
+        <v>0.114181471858906</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>3.251722943464245</v>
+        <v>9.226909841182959</v>
       </c>
       <c r="N17">
-        <v>1.039627623963057</v>
+        <v>0.6901510850789663</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1667005055892474</v>
+        <v>0.3122370499242919</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.4242302381405239</v>
+        <v>1.30148380610035</v>
       </c>
       <c r="E18">
-        <v>0.248467558086702</v>
+        <v>0.7647343368632349</v>
       </c>
       <c r="F18">
-        <v>6.233870562101345</v>
+        <v>17.54585921978742</v>
       </c>
       <c r="G18">
-        <v>0.002326873719914264</v>
+        <v>0.0005219819710948008</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3126419307778239</v>
+        <v>0.114181471858906</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>3.174173220501302</v>
+        <v>9.226909841182959</v>
       </c>
       <c r="N18">
-        <v>1.039695871109501</v>
+        <v>0.6901510850789663</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1654266152931285</v>
+        <v>0.3122370499242919</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4209139390295036</v>
+        <v>1.30148380610035</v>
       </c>
       <c r="E19">
-        <v>0.2463571820807857</v>
+        <v>0.7647343368632349</v>
       </c>
       <c r="F19">
-        <v>6.189158085657766</v>
+        <v>17.54585921978742</v>
       </c>
       <c r="G19">
-        <v>0.002328252281894693</v>
+        <v>0.0005219819710948008</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3131695994379697</v>
+        <v>0.114181471858906</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>3.147962345755673</v>
+        <v>9.226909841182959</v>
       </c>
       <c r="N19">
-        <v>1.03972734932826</v>
+        <v>0.6901510850789663</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1711578531401301</v>
+        <v>0.3122370499242919</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.4358785050330312</v>
+        <v>1.30148380610035</v>
       </c>
       <c r="E20">
-        <v>0.2558606994092116</v>
+        <v>0.7647343368632349</v>
       </c>
       <c r="F20">
-        <v>6.39093251027009</v>
+        <v>17.54585921978742</v>
       </c>
       <c r="G20">
-        <v>0.002322077335447833</v>
+        <v>0.0005219819710948008</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3108112593494798</v>
+        <v>0.114181471858906</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>3.266097898637184</v>
+        <v>9.226909841182959</v>
       </c>
       <c r="N20">
-        <v>1.039618962853979</v>
+        <v>0.6901510850789663</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1903877454561496</v>
+        <v>0.3122370499242919</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.486911443256588</v>
+        <v>1.30148380610035</v>
       </c>
       <c r="E21">
-        <v>0.2879199985655703</v>
+        <v>0.7647343368632349</v>
       </c>
       <c r="F21">
-        <v>7.079219546360264</v>
+        <v>17.54585921978742</v>
       </c>
       <c r="G21">
-        <v>0.002301827579918527</v>
+        <v>0.0005219819710948008</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3031714573127502</v>
+        <v>0.114181471858906</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>3.666430688752484</v>
+        <v>9.226909841182959</v>
       </c>
       <c r="N21">
-        <v>1.039833331560644</v>
+        <v>0.6901510850789663</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2029340735935818</v>
+        <v>0.3122370499242919</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.5208754614550912</v>
+        <v>1.30148380610035</v>
       </c>
       <c r="E22">
-        <v>0.3089855113396567</v>
+        <v>0.7647343368632349</v>
       </c>
       <c r="F22">
-        <v>7.537390591756491</v>
+        <v>17.54585921978742</v>
       </c>
       <c r="G22">
-        <v>0.002288956761662408</v>
+        <v>0.0005219819710948008</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2983898912704426</v>
+        <v>0.114181471858906</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>3.930864699697736</v>
+        <v>9.226909841182959</v>
       </c>
       <c r="N22">
-        <v>1.040400161853981</v>
+        <v>0.6901510850789663</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1962399543991182</v>
+        <v>0.3122370499242919</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.5026890735056782</v>
+        <v>1.30148380610035</v>
       </c>
       <c r="E23">
-        <v>0.2977309966580464</v>
+        <v>0.7647343368632349</v>
       </c>
       <c r="F23">
-        <v>7.292052399798479</v>
+        <v>17.54585921978742</v>
       </c>
       <c r="G23">
-        <v>0.002295793353588052</v>
+        <v>0.0005219819710948008</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3009225589881588</v>
+        <v>0.114181471858906</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>3.789459204654207</v>
+        <v>9.226909841182959</v>
       </c>
       <c r="N23">
-        <v>1.040058875075019</v>
+        <v>0.6901510850789663</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1708432148711267</v>
+        <v>0.3122370499242919</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4350540071096702</v>
+        <v>1.30148380610035</v>
       </c>
       <c r="E24">
-        <v>0.2553383688454716</v>
+        <v>0.7647343368632349</v>
       </c>
       <c r="F24">
-        <v>6.379814608741867</v>
+        <v>17.54585921978742</v>
       </c>
       <c r="G24">
-        <v>0.002322414546157039</v>
+        <v>0.0005219819710948008</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3109396998212492</v>
+        <v>0.114181471858906</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>3.259598232569914</v>
+        <v>9.226909841182959</v>
       </c>
       <c r="N24">
-        <v>1.039622727116566</v>
+        <v>0.6901510850789663</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1433687920817732</v>
+        <v>0.3122370499242919</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3644104759966922</v>
+        <v>1.30148380610035</v>
       </c>
       <c r="E25">
-        <v>0.2099885130927532</v>
+        <v>0.7647343368632349</v>
       </c>
       <c r="F25">
-        <v>5.427668866972226</v>
+        <v>17.54585921978742</v>
       </c>
       <c r="G25">
-        <v>0.002352735617854966</v>
+        <v>0.0005219819710948008</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3226535088687772</v>
+        <v>0.114181471858906</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>2.698467210663409</v>
+        <v>9.226909841182959</v>
       </c>
       <c r="N25">
-        <v>1.041013246675064</v>
+        <v>0.6901510850789663</v>
       </c>
       <c r="O25">
         <v>0</v>
